--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I3I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EDEF44-1250-4CA4-994E-5F089C0ADC83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF44E99E-192F-417F-B34A-AEE6CF222CDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -131,295 +131,295 @@
     <t>Channel 16</t>
   </si>
   <si>
+    <t>Channel[0]</t>
+  </si>
+  <si>
+    <t>Channel[1]</t>
+  </si>
+  <si>
+    <t>Channel[2]</t>
+  </si>
+  <si>
+    <t>Channel[3]</t>
+  </si>
+  <si>
+    <t>Channel[4]</t>
+  </si>
+  <si>
+    <t>Channel[5]</t>
+  </si>
+  <si>
+    <t>Channel[6]</t>
+  </si>
+  <si>
+    <t>Channel[7]</t>
+  </si>
+  <si>
+    <t>Channel[8]</t>
+  </si>
+  <si>
+    <t>Channel[9]</t>
+  </si>
+  <si>
+    <t>Channel[10]</t>
+  </si>
+  <si>
+    <t>Channel[11]</t>
+  </si>
+  <si>
+    <t>Channel[12]</t>
+  </si>
+  <si>
+    <t>Channel[13]</t>
+  </si>
+  <si>
+    <t>Channel[14]</t>
+  </si>
+  <si>
+    <t>Channel[15]</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>NO_BUSBAR</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>PMP_FR_Cabling</t>
+  </si>
+  <si>
+    <t>PMP_PQ_Cabling</t>
+  </si>
+  <si>
+    <t>DSPChannelMap 1</t>
+  </si>
+  <si>
+    <t>DSPChannelMap 2</t>
+  </si>
+  <si>
+    <t>STANDALONE_PQ</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>BUSBAR2</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>VBUSBAR1</t>
+  </si>
+  <si>
+    <t>BOTH</t>
+  </si>
+  <si>
+    <t>FEEDER3</t>
+  </si>
+  <si>
+    <t>VBUSBAR2</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>STANDALONE</t>
+  </si>
+  <si>
+    <t>FEEDER4</t>
+  </si>
+  <si>
+    <t>FEEDER5</t>
+  </si>
+  <si>
+    <t>Cabling 3U3I3I3I3I</t>
+  </si>
+  <si>
+    <t>Channel_Number_DSP1</t>
+  </si>
+  <si>
+    <t>Channel_Number_DSP2</t>
+  </si>
+  <si>
+    <t>DeviceIP</t>
+  </si>
+  <si>
+    <t>CalibrationFileName</t>
+  </si>
+  <si>
+    <t>Busbar_Channel_Map</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Busbar_0_Channel_0</t>
+  </si>
+  <si>
+    <t>Busbar_0_Channel_1</t>
+  </si>
+  <si>
+    <t>Busbar_0_Channel_2</t>
+  </si>
+  <si>
+    <t>Busbar_0_Channel_3</t>
+  </si>
+  <si>
+    <t>Busbar_0_Channel_Count</t>
+  </si>
+  <si>
+    <t>Busbar_1_Channel_0</t>
+  </si>
+  <si>
+    <t>Busbar_1_Channel_1</t>
+  </si>
+  <si>
+    <t>Busbar_1_Channel_2</t>
+  </si>
+  <si>
+    <t>Busbar_1_Channel_3</t>
+  </si>
+  <si>
+    <t>Busbar_1_Channel_Count</t>
+  </si>
+  <si>
+    <t>Feeder_0_Channel_0</t>
+  </si>
+  <si>
+    <t>Feeder_0_Channel_1</t>
+  </si>
+  <si>
+    <t>Feeder_0_Channel_2</t>
+  </si>
+  <si>
+    <t>Feeder_0_Channel_3</t>
+  </si>
+  <si>
+    <t>Feeder_0_Channel_Count</t>
+  </si>
+  <si>
+    <t>Feeder_0_Channel_AssociatedBusbar</t>
+  </si>
+  <si>
+    <t>Feeder_1_Channel_0</t>
+  </si>
+  <si>
+    <t>Feeder_1_Channel_1</t>
+  </si>
+  <si>
+    <t>Feeder_1_Channel_2</t>
+  </si>
+  <si>
+    <t>Feeder_1_Channel_3</t>
+  </si>
+  <si>
+    <t>Feeder_1_Channel_Count</t>
+  </si>
+  <si>
+    <t>Feeder_1_Channel_AssociatedBusbar</t>
+  </si>
+  <si>
+    <t>Feeder_2_Channel_0</t>
+  </si>
+  <si>
+    <t>Feeder_2_Channel_1</t>
+  </si>
+  <si>
+    <t>Feeder_2_Channel_2</t>
+  </si>
+  <si>
+    <t>Feeder_2_Channel_3</t>
+  </si>
+  <si>
+    <t>Feeder_2_Channel_Count</t>
+  </si>
+  <si>
+    <t>Feeder_2_Channel_AssociatedBusbar</t>
+  </si>
+  <si>
+    <t>Feeder_3_Channel_0</t>
+  </si>
+  <si>
+    <t>Feeder_3_Channel_1</t>
+  </si>
+  <si>
+    <t>Feeder_3_Channel_2</t>
+  </si>
+  <si>
+    <t>Feeder_3_Channel_3</t>
+  </si>
+  <si>
+    <t>Feeder_3_Channel_Count</t>
+  </si>
+  <si>
+    <t>Feeder_3_Channel_AssociatedBusbar</t>
+  </si>
+  <si>
+    <t>Feeder_4_Channel_0</t>
+  </si>
+  <si>
+    <t>Feeder_4_Channel_1</t>
+  </si>
+  <si>
+    <t>Feeder_4_Channel_2</t>
+  </si>
+  <si>
+    <t>Feeder_4_Channel_3</t>
+  </si>
+  <si>
+    <t>Feeder_4_Channel_Count</t>
+  </si>
+  <si>
+    <t>Feeder_4_Channel_AssociatedBusbar</t>
+  </si>
+  <si>
+    <t>DSP_Feeder_Map</t>
+  </si>
+  <si>
+    <t>DSP_1_Feeder_Map_0</t>
+  </si>
+  <si>
+    <t>DSP_1_Feeder_Map_1</t>
+  </si>
+  <si>
+    <t>DSP_1_Feeder_Map_2</t>
+  </si>
+  <si>
+    <t>DSP_2_Feeder_Map_0</t>
+  </si>
+  <si>
+    <t>DSP_2_Feeder_Map_1</t>
+  </si>
+  <si>
+    <t>DSP_2_Feeder_Map_2</t>
+  </si>
+  <si>
+    <t>DeviceType</t>
+  </si>
+  <si>
+    <t>DeviceName</t>
+  </si>
+  <si>
+    <t>10.75.58.66</t>
+  </si>
+  <si>
+    <t>IDC-DAU-66</t>
+  </si>
+  <si>
+    <t>IDM-E</t>
+  </si>
+  <si>
+    <t>3U_13I.cal</t>
+  </si>
+  <si>
     <t>Channel 17</t>
   </si>
   <si>
     <t>Channel 18</t>
-  </si>
-  <si>
-    <t>Channel[0]</t>
-  </si>
-  <si>
-    <t>Channel[1]</t>
-  </si>
-  <si>
-    <t>Channel[2]</t>
-  </si>
-  <si>
-    <t>Channel[3]</t>
-  </si>
-  <si>
-    <t>Channel[4]</t>
-  </si>
-  <si>
-    <t>Channel[5]</t>
-  </si>
-  <si>
-    <t>Channel[6]</t>
-  </si>
-  <si>
-    <t>Channel[7]</t>
-  </si>
-  <si>
-    <t>Channel[8]</t>
-  </si>
-  <si>
-    <t>Channel[9]</t>
-  </si>
-  <si>
-    <t>Channel[10]</t>
-  </si>
-  <si>
-    <t>Channel[11]</t>
-  </si>
-  <si>
-    <t>Channel[12]</t>
-  </si>
-  <si>
-    <t>Channel[13]</t>
-  </si>
-  <si>
-    <t>Channel[14]</t>
-  </si>
-  <si>
-    <t>Channel[15]</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>NO_BUSBAR</t>
-  </si>
-  <si>
-    <t>usage</t>
-  </si>
-  <si>
-    <t>PMP_FR_Cabling</t>
-  </si>
-  <si>
-    <t>PMP_PQ_Cabling</t>
-  </si>
-  <si>
-    <t>DSPChannelMap 1</t>
-  </si>
-  <si>
-    <t>DSPChannelMap 2</t>
-  </si>
-  <si>
-    <t>STANDALONE_PQ</t>
-  </si>
-  <si>
-    <t>PQ</t>
-  </si>
-  <si>
-    <t>BUSBAR2</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>VBUSBAR1</t>
-  </si>
-  <si>
-    <t>BOTH</t>
-  </si>
-  <si>
-    <t>FEEDER3</t>
-  </si>
-  <si>
-    <t>VBUSBAR2</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>STANDALONE</t>
-  </si>
-  <si>
-    <t>FEEDER4</t>
-  </si>
-  <si>
-    <t>FEEDER5</t>
-  </si>
-  <si>
-    <t>Cabling 3U3I3I3I3I</t>
-  </si>
-  <si>
-    <t>Channel_Number_DSP1</t>
-  </si>
-  <si>
-    <t>Channel_Number_DSP2</t>
-  </si>
-  <si>
-    <t>DeviceIP</t>
-  </si>
-  <si>
-    <t>CalibrationFileName</t>
-  </si>
-  <si>
-    <t>Busbar_Channel_Map</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Busbar_0_Channel_0</t>
-  </si>
-  <si>
-    <t>Busbar_0_Channel_1</t>
-  </si>
-  <si>
-    <t>Busbar_0_Channel_2</t>
-  </si>
-  <si>
-    <t>Busbar_0_Channel_3</t>
-  </si>
-  <si>
-    <t>Busbar_0_Channel_Count</t>
-  </si>
-  <si>
-    <t>Busbar_1_Channel_0</t>
-  </si>
-  <si>
-    <t>Busbar_1_Channel_1</t>
-  </si>
-  <si>
-    <t>Busbar_1_Channel_2</t>
-  </si>
-  <si>
-    <t>Busbar_1_Channel_3</t>
-  </si>
-  <si>
-    <t>Busbar_1_Channel_Count</t>
-  </si>
-  <si>
-    <t>Feeder_0_Channel_0</t>
-  </si>
-  <si>
-    <t>Feeder_0_Channel_1</t>
-  </si>
-  <si>
-    <t>Feeder_0_Channel_2</t>
-  </si>
-  <si>
-    <t>Feeder_0_Channel_3</t>
-  </si>
-  <si>
-    <t>Feeder_0_Channel_Count</t>
-  </si>
-  <si>
-    <t>Feeder_0_Channel_AssociatedBusbar</t>
-  </si>
-  <si>
-    <t>Feeder_1_Channel_0</t>
-  </si>
-  <si>
-    <t>Feeder_1_Channel_1</t>
-  </si>
-  <si>
-    <t>Feeder_1_Channel_2</t>
-  </si>
-  <si>
-    <t>Feeder_1_Channel_3</t>
-  </si>
-  <si>
-    <t>Feeder_1_Channel_Count</t>
-  </si>
-  <si>
-    <t>Feeder_1_Channel_AssociatedBusbar</t>
-  </si>
-  <si>
-    <t>Feeder_2_Channel_0</t>
-  </si>
-  <si>
-    <t>Feeder_2_Channel_1</t>
-  </si>
-  <si>
-    <t>Feeder_2_Channel_2</t>
-  </si>
-  <si>
-    <t>Feeder_2_Channel_3</t>
-  </si>
-  <si>
-    <t>Feeder_2_Channel_Count</t>
-  </si>
-  <si>
-    <t>Feeder_2_Channel_AssociatedBusbar</t>
-  </si>
-  <si>
-    <t>Feeder_3_Channel_0</t>
-  </si>
-  <si>
-    <t>Feeder_3_Channel_1</t>
-  </si>
-  <si>
-    <t>Feeder_3_Channel_2</t>
-  </si>
-  <si>
-    <t>Feeder_3_Channel_3</t>
-  </si>
-  <si>
-    <t>Feeder_3_Channel_Count</t>
-  </si>
-  <si>
-    <t>Feeder_3_Channel_AssociatedBusbar</t>
-  </si>
-  <si>
-    <t>Feeder_4_Channel_0</t>
-  </si>
-  <si>
-    <t>Feeder_4_Channel_1</t>
-  </si>
-  <si>
-    <t>Feeder_4_Channel_2</t>
-  </si>
-  <si>
-    <t>Feeder_4_Channel_3</t>
-  </si>
-  <si>
-    <t>Feeder_4_Channel_Count</t>
-  </si>
-  <si>
-    <t>Feeder_4_Channel_AssociatedBusbar</t>
-  </si>
-  <si>
-    <t>DSP_Feeder_Map</t>
-  </si>
-  <si>
-    <t>DSP_1_Feeder_Map_0</t>
-  </si>
-  <si>
-    <t>DSP_1_Feeder_Map_1</t>
-  </si>
-  <si>
-    <t>DSP_1_Feeder_Map_2</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_0</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_1</t>
-  </si>
-  <si>
-    <t>DSP_2_Feeder_Map_2</t>
-  </si>
-  <si>
-    <t>DeviceType</t>
-  </si>
-  <si>
-    <t>DeviceName</t>
-  </si>
-  <si>
-    <t>10.75.58.66</t>
-  </si>
-  <si>
-    <t>sn414638044_3U_15I.cal</t>
-  </si>
-  <si>
-    <t>IDC-DAU-66</t>
-  </si>
-  <si>
-    <t>IDM-E</t>
   </si>
 </sst>
 </file>
@@ -740,8 +740,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,30 +752,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -788,8 +788,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,18 +837,18 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
         <v>55</v>
-      </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -857,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -875,18 +875,18 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -895,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -913,12 +913,12 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -927,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -945,12 +945,12 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -959,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -977,12 +977,12 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
         <v>19</v>
@@ -1027,12 +1027,12 @@
         <v>15</v>
       </c>
       <c r="AB6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
         <v>20</v>
@@ -1071,18 +1071,18 @@
         <v>11</v>
       </c>
       <c r="Z7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="s">
         <v>16</v>
       </c>
       <c r="AB7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1091,7 +1091,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W8" t="s">
         <v>21</v>
@@ -1118,18 +1118,18 @@
         <v>12</v>
       </c>
       <c r="Z8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA8" t="s">
         <v>17</v>
       </c>
       <c r="AB8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1156,27 +1156,27 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
         <v>22</v>
       </c>
       <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" t="s">
         <v>66</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>67</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1203,27 +1203,27 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W10" t="s">
         <v>23</v>
       </c>
       <c r="Y10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AA10" t="s">
         <v>18</v>
       </c>
       <c r="AB10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1232,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1250,18 +1250,18 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
         <v>24</v>
       </c>
       <c r="Y11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1270,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
         <v>25</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1305,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -1340,10 +1340,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W14" t="s">
         <v>27</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -1375,10 +1375,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W15" t="s">
         <v>28</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -1410,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W16" t="s">
         <v>29</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1445,13 +1445,13 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
         <v>18</v>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W17" t="s">
         <v>30</v>
@@ -1481,12 +1481,12 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W20" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W21" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1531,15 +1531,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>-1</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>-1</v>
@@ -1622,15 +1622,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B30">
         <v>13</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31">
         <v>14</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32">
         <v>15</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1972,16 +1972,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/3U3I3I3I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF44E99E-192F-417F-B34A-AEE6CF222CDB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9675F32-1080-4740-A102-CB0F41ED6AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="25320" windowHeight="15870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="132">
   <si>
     <t>Channel</t>
   </si>
@@ -788,7 +788,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1518,10 +1518,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E0099A-9758-4DC0-9AD6-5D6E3BDCD040}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,41 +1563,25 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9">
         <v>-1</v>
       </c>
     </row>
